--- a/app/assets/stylesheets/Steve Jobs (13).xlsx
+++ b/app/assets/stylesheets/Steve Jobs (13).xlsx
@@ -67,7 +67,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:S4"/>
+  <dimension ref="A1:AM4"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
@@ -92,6 +92,26 @@
     <col min="17" max="17" bestFit="true" customWidth="true" width="11.88988764044944"/>
     <col min="18" max="18" bestFit="true" customWidth="true" width="9.68988764044944"/>
     <col min="19" max="19" bestFit="true" customWidth="true" width="9.68988764044944"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="28.389887640449437"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="9.68988764044944"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="9.68988764044944"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="9.68988764044944"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="9.68988764044944"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="9.68988764044944"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="9.68988764044944"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="9.68988764044944"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="9.68988764044944"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="9.68988764044944"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="28.389887640449437"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="9.68988764044944"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="9.68988764044944"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="9.68988764044944"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="9.68988764044944"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="9.68988764044944"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="9.68988764044944"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" width="9.68988764044944"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" width="4.189887640449439"/>
+    <col min="39" max="39" bestFit="true" customWidth="true" width="4.189887640449439"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -190,6 +210,96 @@
           <t>q3_opt3</t>
         </is>
       </c>
+      <c r="T1" s="0" t="inlineStr">
+        <is>
+          <t>q1_opt1</t>
+        </is>
+      </c>
+      <c r="U1" s="0" t="inlineStr">
+        <is>
+          <t>q1_opt2</t>
+        </is>
+      </c>
+      <c r="V1" s="0" t="inlineStr">
+        <is>
+          <t>q1_opt3</t>
+        </is>
+      </c>
+      <c r="W1" s="0" t="inlineStr">
+        <is>
+          <t>q2_opt1</t>
+        </is>
+      </c>
+      <c r="X1" s="0" t="inlineStr">
+        <is>
+          <t>q2_opt2</t>
+        </is>
+      </c>
+      <c r="Y1" s="0" t="inlineStr">
+        <is>
+          <t>q2_opt3</t>
+        </is>
+      </c>
+      <c r="Z1" s="0" t="inlineStr">
+        <is>
+          <t>q3_opt1</t>
+        </is>
+      </c>
+      <c r="AA1" s="0" t="inlineStr">
+        <is>
+          <t>q3_opt2</t>
+        </is>
+      </c>
+      <c r="AB1" s="0" t="inlineStr">
+        <is>
+          <t>q3_opt3</t>
+        </is>
+      </c>
+      <c r="AC1" s="0" t="inlineStr">
+        <is>
+          <t>q1_opt1</t>
+        </is>
+      </c>
+      <c r="AD1" s="0" t="inlineStr">
+        <is>
+          <t>q1_opt2</t>
+        </is>
+      </c>
+      <c r="AE1" s="0" t="inlineStr">
+        <is>
+          <t>q1_opt3</t>
+        </is>
+      </c>
+      <c r="AF1" s="0" t="inlineStr">
+        <is>
+          <t>q2_opt1</t>
+        </is>
+      </c>
+      <c r="AG1" s="0" t="inlineStr">
+        <is>
+          <t>q2_opt2</t>
+        </is>
+      </c>
+      <c r="AH1" s="0" t="inlineStr">
+        <is>
+          <t>q2_opt3</t>
+        </is>
+      </c>
+      <c r="AI1" s="0" t="inlineStr">
+        <is>
+          <t>q3_opt1</t>
+        </is>
+      </c>
+      <c r="AJ1" s="0" t="inlineStr">
+        <is>
+          <t>q3_opt2</t>
+        </is>
+      </c>
+      <c r="AK1" s="0" t="inlineStr">
+        <is>
+          <t>q3_opt3</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="n">
@@ -360,6 +470,66 @@
       <c r="S3" s="0" t="n">
         <v>5</v>
       </c>
+      <c r="T3" s="2">
+        <v>42707.97142585126</v>
+      </c>
+      <c r="U3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB3" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC3" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD3" s="2">
+        <v>42708.016006341655</v>
+      </c>
+      <c r="AE3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM3" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="inlineStr">
@@ -429,6 +599,66 @@
       <c r="Q4" s="0"/>
       <c r="R4" s="0"/>
       <c r="S4" s="0"/>
+      <c r="T4" s="2">
+        <v>42707.97153375884</v>
+      </c>
+      <c r="U4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC4" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD4" s="2">
+        <v>42708.01611987991</v>
+      </c>
+      <c r="AE4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM4" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
